--- a/data/hotels_by_city/Dallas/Dallas_shard_197.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_197.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="230">
   <si>
     <t>STR#</t>
   </si>
@@ -147,6 +147,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>BrianB6786</t>
+  </si>
+  <si>
     <t>05/29/2018</t>
   </si>
   <si>
@@ -180,6 +183,9 @@
     <t>this place is Econo lodge now.i reserved my my room for two nights using reward points.the room I reserved was around 90 bucks if I been paying cash while other rooms were 66bucks.I am a long time Dimond member and when I requested a ground level room I was told they only put nightly down there(I was staying for two!!!!) when I do get my room it is just regular nasty room I assumed it had whirlpool because it was priced so much higher.wires hanging out of wall ,lamp broken ,1 bulb blown.holes in carpet , stained discolored towels only one wash rag ,one bar soap.i attempted to use the HDMI on the tv with my computer but could not access the HDMI port.i had a woman come beating on my door wanting a towel because it was raining ,she asked me if I liked "rock" I don't think she talking about music!!!lots of homeless hanging around.i didn't sleep at night for I kept checking my truck wasn't broken into.when I did get to sleep around 5 am I was woke by house keeping BEATING on my door at 9:30 AM ugh!!! the staff did seem nice though.More</t>
   </si>
   <si>
+    <t>M'sha J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d7258263-r471208337-Econo_Lodge_Inn_Suites-Dallas_Texas.html</t>
   </si>
   <si>
@@ -204,6 +210,9 @@
     <t>I booked a hotel at the Econolodge, because my home is being renovated . There was no lights in the room. I informed the man at the desk , he told me that he forgot to tell me that he foroot to tell me. He then proceeded to tell me that they are currently renovating. He also then told me that the other customers don't mind the rooms having lights and if I want a room with lights I would have to pay $10 extra.  I then called Hotwire to inform them . They told me that lights are not included in the rooms. I then informed the representative that it is unsafe because the wires' are hanging out the walls. I still received the same outcome. More</t>
   </si>
   <si>
+    <t>Dewayne M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d7258263-r469114301-Econo_Lodge_Inn_Suites-Dallas_Texas.html</t>
   </si>
   <si>
@@ -219,6 +228,9 @@
     <t>The service was excellent I had a great time I enjoyed my stay there only thing the housekeeping could have been a little bit better and have a little bit more towels and cups in a room other than that everything would have been great perfectly with the restaurant right across next to it</t>
   </si>
   <si>
+    <t>Aimee A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d7258263-r453108945-Econo_Lodge_Inn_Suites-Dallas_Texas.html</t>
   </si>
   <si>
@@ -243,6 +255,9 @@
     <t>While the room appeared clean the toilet wouldn't flush and the sink leaked. We also had our uhaul trailer and truck broken into. THIS IS GHETTO LAND...DO NOT STAY HERE! Called the front desk and asked if they could call the police so we could file a report, he said dial 911...really? So I looked up the number and called. The Dallas PD is a joke as well... they said it would be hours before they could come because they were busy. If I could give negative stars I would. The front desk only said it wasn't a guest and of course the tape ran out and showed nothing....not even a sorry from them....More</t>
   </si>
   <si>
+    <t>EewBedBugCity</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d7258263-r418227575-Econo_Lodge_Inn_Suites-Dallas_Texas.html</t>
   </si>
   <si>
@@ -261,6 +276,9 @@
     <t>September 2016</t>
   </si>
   <si>
+    <t>degantes</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d7258263-r413514972-Econo_Lodge_Inn_Suites-Dallas_Texas.html</t>
   </si>
   <si>
@@ -276,6 +294,9 @@
     <t>Very disappointed on my one night stay. Would NOT recommend anyone to stay at this location. I have an 18 wheeler and had to park it outside. This morning my new spare tire was stolen! My neighbors truck was also broken into. Their window was broken and all of their personal items were stolen. This morning we went to speak to the clerk inside the hotel and he only responded "Our surveillance system does not work!!! We couldn't believe it! We still called police to file a report.This Hotel is NOT SAFE at all!!!!  They need to fix their cameras and have security guards at all times!!!</t>
   </si>
   <si>
+    <t>GreyLady0821</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d7258263-r259837881-Econo_Lodge_Inn_Suites-Dallas_Texas.html</t>
   </si>
   <si>
@@ -297,6 +318,9 @@
     <t>Check in was nice and quick.  Went to the room - clean but needs updating, but at the price a good deal.  TV was old and you didn't want to use the "turntable"...it would have fallen off.  Could replace pillows more often, as they were pretty flat.  Once you get to the room,  don't leave!!  Or at least don't go to the convenience store/Jack in the Box after dark!!!  The pan-handlers/moochers/druggies are out in force - and I think the "ladies of the evening" were there too. Scarred the heck out of my grand-daughter when going to the store and Jack in the box. After going back to the room I had to show her that the locks didn't allow anyone to get in.... The next morning I had the door open and the kids saw EMS several rooms down.  Seeing the door was open, the police came and asked us if we'd heard gunshots!  I'm a Choice Hotel Member, but I will never stay at this particular place again.  Any "above average" reviews must have been a BRAVE Trucker - shower and a decent bed is what they are looking for  - but it's all about LOCATION, LOCATION, LOCATION!!More</t>
   </si>
   <si>
+    <t>April B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d7258263-r199237420-Econo_Lodge_Inn_Suites-Dallas_Texas.html</t>
   </si>
   <si>
@@ -318,6 +342,9 @@
     <t>Overall 90% of the time our stay be great the rooms are clean, the best are comfotable, the parking lots be quiet, the only downsides are the dont always honor reservations made via the 1800#, the older housekeeper is very rude, and they charge an extra $5.00 for the a/c usage in the summer which they control from the office and will cut it off when they feel the need we stay here a lot because of business ... p.s. if you do make a reservation via the 1800# you must check in by 4pm or this location will cancel it and pretend they cannot find it even if you have the email for them to see so you have to pay fill price not the normal 6pm cancel time everywhere else...More</t>
   </si>
   <si>
+    <t>Isaac C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d7258263-r196692923-Econo_Lodge_Inn_Suites-Dallas_Texas.html</t>
   </si>
   <si>
@@ -330,6 +357,9 @@
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
+    <t>Clifton V</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d7258263-r196413407-Econo_Lodge_Inn_Suites-Dallas_Texas.html</t>
   </si>
   <si>
@@ -342,6 +372,9 @@
     <t>February 2014</t>
   </si>
   <si>
+    <t>Marla C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d7258263-r183050714-Econo_Lodge_Inn_Suites-Dallas_Texas.html</t>
   </si>
   <si>
@@ -363,6 +396,9 @@
     <t>Omigoodness! If you want a terrible place to stay--come here. Where do the problems begin? The rude/awful front clerk--who blames us that we were upset our room was dirty, complete with a pot full of coffee left from the people before us. . .and on our last day, of two, had started to grow mold. Oh! We were supposed to call downstairs and inform them about the problem, so they could have corrected the problem. Funny. We did on day one of our stay. Then the breakfast was poor. The food was old, not presented nicely, and the breakfast area was dirty. Then there's the problem with security. There was a back door left open all night; this is a door that is supposed to be closed and only people with keys are allowed in.  Hmm? Whom do you suppose in tramping in/out of the door all night long? Not impressed. As a regular trip advisor and a Wyndham Rewards customer. . .I really suggest you stay away from this place.More</t>
   </si>
   <si>
+    <t>Moe92136</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d7258263-r181311119-Econo_Lodge_Inn_Suites-Dallas_Texas.html</t>
   </si>
   <si>
@@ -378,6 +414,9 @@
     <t>Was very quiet. No problems at night. The beds were comfortable and the room was clean. No problems at check in. It was a nice stay. Checked out before breakfast, didn't look like they were making it anyway.</t>
   </si>
   <si>
+    <t>Arlon J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d7258263-r179445733-Econo_Lodge_Inn_Suites-Dallas_Texas.html</t>
   </si>
   <si>
@@ -399,6 +438,9 @@
     <t>When you first open the door to the room, cigarette smoke greets you and knock you over; the bed look as if someone had playing in it.  There was a dirty wash cloth that was hanging over the shower stall and shower stall had not been cleaned. The furniture was all scracthed and beat up and the mattress on the bed was very worn and lumpy, had sink holes where bodies have slept often.  When I asked for a different room for especially because of the cigarette smoke I was told other rooms available were not as nice as the one that I had..........................Can you believe it?  Not as nice.........More</t>
   </si>
   <si>
+    <t>Scott H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d7258263-r175692438-Econo_Lodge_Inn_Suites-Dallas_Texas.html</t>
   </si>
   <si>
@@ -406,6 +448,9 @@
   </si>
   <si>
     <t>09/04/2013</t>
+  </si>
+  <si>
+    <t>Catherine K</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d7258263-r162546426-Econo_Lodge_Inn_Suites-Dallas_Texas.html</t>
@@ -435,6 +480,9 @@
 Our reservation originally was...We booked a room here because we were traveling to Dallas for a softball tournament and it was close to the fields.  That was the ONLY benefit of this place.  When I called prior to our stay, I was told that there was a working pool and HOT breakfast included with every stay.  When we arrived this was not the case.  The pool was closed and the breakfast consisted of 4 cold cereal choices, milk that had been in the same open pitcher for days (it had a thick, nasty dried milk ring at the top) and still frozen muffins.  We have a service dog and the fist night we were there my husband took him out for a walk when a police officer approached him and warned him that it was a very dangerous area and to be careful and aware of his surroundings while we were there.  I never left the room without my husband for this reason.  My husband was approached by drug addicts asking for money every time he took a step outside our door.Our room was nothing special, but for the price we didn't have high expectations.  We did, however, hope to have a functioning toilet, wall safe, fridge, and microwave.  Unfortunately, each of those items had issues and when we alerted hotel management, the owner's response was, "Oh." The cleanliness of the room also left something to be desired.Our reservation originally was for 3 nights.  After our first day there, the softball tournament we were in town for was cancelled due to weather and we informed the young man at the front desk that we would be staying the second night, but checking out a day early.  He said that was no problem and we trusted that was all we needed to do.  He also reactivated our room key that had stopped working, but never asked for ID to ensure we were authorized access to that room.  Unfortunately, when my husband went downstairs to check out at 9:40am, the owner/manager told him that he had no record of our notice to leave early and charged us for the 3rd night anyway.  When my husband objected, his reply was, "It's not too late to stay!".  This was by far the WORST hotel experience we have ever had and would caution anyone considering a room here to stay ANYWHERE else.  Really, you'd be better off in your car.The management here are rude and dishonest, at best.  The rooms are in desperate need of deep cleaning, as well as the most basic routine maintenance and the advertised features should be updated to reflect a more accurate picture of what you get here: Toilets that don't flush properly, room...More</t>
   </si>
   <si>
+    <t>Maricela P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d7258263-r160510526-Econo_Lodge_Inn_Suites-Dallas_Texas.html</t>
   </si>
   <si>
@@ -447,6 +495,9 @@
     <t>April 2013</t>
   </si>
   <si>
+    <t>Claudette S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d7258263-r155170714-Econo_Lodge_Inn_Suites-Dallas_Texas.html</t>
   </si>
   <si>
@@ -465,6 +516,9 @@
     <t>March 2013</t>
   </si>
   <si>
+    <t>scarred_owl</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d7258263-r152718139-Econo_Lodge_Inn_Suites-Dallas_Texas.html</t>
   </si>
   <si>
@@ -477,12 +531,18 @@
     <t>February 2013</t>
   </si>
   <si>
+    <t>RMM60</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d7258263-r150896495-Econo_Lodge_Inn_Suites-Dallas_Texas.html</t>
   </si>
   <si>
     <t>150896495</t>
   </si>
   <si>
+    <t>KAREN L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d7258263-r143437400-Econo_Lodge_Inn_Suites-Dallas_Texas.html</t>
   </si>
   <si>
@@ -495,6 +555,9 @@
     <t>October 2012</t>
   </si>
   <si>
+    <t>Smileystarprince</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d7258263-r136321379-Econo_Lodge_Inn_Suites-Dallas_Texas.html</t>
   </si>
   <si>
@@ -510,6 +573,9 @@
     <t xml:space="preserve">I enjoyed my stay in this hotel ...except the free wifi was too week the connection would cut off both my android and iPhone would get cut off :/ ...the pool was nice and warm but too many leafs from the near by trees...I was a little disgusted when exploring the restroom to find a sexual advertisement writen on door :/...over all I actually was satisfied with my stay at ramada </t>
   </si>
   <si>
+    <t>Jon C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d7258263-r132938375-Econo_Lodge_Inn_Suites-Dallas_Texas.html</t>
   </si>
   <si>
@@ -531,6 +597,9 @@
     <t>Room seemed kinda clean with old bed linens, A/C never really cooled the room to my liking and the controls were broken so I had no way of setting it properly. Someone came knocking on my door at 9:30 PM as though they knew who I was. I never opened the door, but the motel has a security golf cart with 3 flat tires! Breakfast was a joke, yesterday they had a frozen McDonalds sausage biscuit out in the pastries box. They have a good selection of cereal but basically nothing else. Security is a big concern here! Owners seem to be doing just enough to keep the business of trucking companies that need a place to house new hires during orientation only.More</t>
   </si>
   <si>
+    <t>verylucrative</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d7258263-r128194801-Econo_Lodge_Inn_Suites-Dallas_Texas.html</t>
   </si>
   <si>
@@ -549,6 +618,9 @@
     <t>April 2012</t>
   </si>
   <si>
+    <t>rickyline</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d7258263-r94799922-Econo_Lodge_Inn_Suites-Dallas_Texas.html</t>
   </si>
   <si>
@@ -570,6 +642,9 @@
     <t>I was here for two nights for spending some time out. Umm, wanted some real good things happen to me. And guess what, I ended up at perfect place. This place is located at silent location, the rooms are clean and worth money. But above all, the guy at the front desk is amazing. He has some real good accent, sweet smile on his face, handsome, with nice sense of humour.  He gave me perfect service at night time, like seen such decency nowhere, seriously!! The guy in the morning there was ok.  Above all, I would rate this motel 3.5, but that guy I would give 10 on 10. You can try his gesture if you see him some time.More</t>
   </si>
   <si>
+    <t>grendel_matrix</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d7258263-r19481575-Econo_Lodge_Inn_Suites-Dallas_Texas.html</t>
   </si>
   <si>
@@ -594,6 +669,9 @@
     <t>Everything was pretty good on check in evne though it was late at night, however one thing that annoyed me was getting knocks on the door from the maids at10:30 well before it would be normal check out time to clean the room.  But the kicker is I had called the night before check out and asked for a late check out with which the clerk who answered the phone said was fine but the next day while taking a shower, the manager or asst manager pounded on the door and my gf said he told her we had to leave immediately and that any late check outs had to be cleared thru him, stupid me, I should have known that right, because obviously I"m psychic.  Upon returning home I noticed that he charged my card for an additional day even though I hadn't stayed so now as we speak I"m disputing this with my bank, and I called Ramada's customer service to let them know and within 30 mins later I get a call from the manager person who basically calls me a liar and tells me I can drive down there anytime to review the video for whatever reason, anyways, avoid at all costs unless you like getting screwed over.More</t>
   </si>
   <si>
+    <t>LouisianaMadea</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d7258263-r13285610-Econo_Lodge_Inn_Suites-Dallas_Texas.html</t>
   </si>
   <si>
@@ -613,6 +691,9 @@
   </si>
   <si>
     <t>Having to go to Dallas Texas,I went on the internet to fnd a hotel closest to the area I needed to be.The Ramada Ltd. was recommended by hotels.com. The second day of my visit which was a cold and wet and rainy day. That afternoon when the toilet was flushed it proceeded to overflow. There was a plunger already in the room.(how lucky and convient that was!!!!).Iplunged the toilet to stop it from running over.I called the front desk to inform them what had happened.The clerk informed me that i needed to use the towels to mop the water up. There was too much water on the floor.She informed me that i had a problem and she was the only one at the desk and that was the best that she could do for me.She did however take the time to bring me a bag of rags for me to mop with.Then she later was gracious enough to bring me a mop and bucket to mop with after I called the hotel managerr/owner who hung the phone up in my face.She eventually came and mopped the room and I don't think she liked it one bit.Stay away from the hotel will never visit again!!!!More</t>
+  </si>
+  <si>
+    <t>TXTraveller55</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d7258263-r8510296-Econo_Lodge_Inn_Suites-Dallas_Texas.html</t>
@@ -1135,43 +1216,47 @@
       <c r="A2" t="n">
         <v>31377</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>132086</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M2" t="n">
         <v>2</v>
       </c>
       <c r="N2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P2" t="n">
         <v>1</v>
@@ -1191,50 +1276,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>31377</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>132087</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M3" t="n">
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="O3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -1248,50 +1337,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>31377</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>132088</v>
+      </c>
+      <c r="C4" t="s">
+        <v>64</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="K4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="L4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="M4" t="n">
         <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="O4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -1305,50 +1398,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>31377</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>8288</v>
+      </c>
+      <c r="C5" t="s">
+        <v>70</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="J5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="K5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="L5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="O5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -1362,50 +1459,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>31377</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>132089</v>
+      </c>
+      <c r="C6" t="s">
+        <v>79</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="J6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="K6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="L6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
       <c r="N6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="O6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P6" t="n">
         <v>1</v>
@@ -1425,50 +1526,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>31377</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>132090</v>
+      </c>
+      <c r="C7" t="s">
+        <v>86</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="J7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="K7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="L7" t="s">
+        <v>91</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
         <v>85</v>
       </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="s">
-        <v>80</v>
-      </c>
       <c r="O7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="n">
@@ -1486,50 +1591,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>31377</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>132091</v>
+      </c>
+      <c r="C8" t="s">
+        <v>92</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="J8" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="K8" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="L8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="M8" t="n">
         <v>3</v>
       </c>
       <c r="N8" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="O8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="n">
@@ -1549,50 +1658,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>31377</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>13559</v>
+      </c>
+      <c r="C9" t="s">
+        <v>100</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="G9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="J9" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="K9" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="L9" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="M9" t="n">
         <v>3</v>
       </c>
       <c r="N9" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="O9" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="P9" t="n">
         <v>3</v>
@@ -1616,35 +1729,39 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>31377</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>114603</v>
+      </c>
+      <c r="C10" t="s">
+        <v>108</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="G10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="J10" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="K10" t="s"/>
       <c r="L10" t="s"/>
@@ -1652,10 +1769,10 @@
         <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="O10" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="P10" t="n">
         <v>3</v>
@@ -1676,36 +1793,37 @@
       <c r="V10" t="n">
         <v>0</v>
       </c>
-      <c r="W10" t="s"/>
-      <c r="X10" t="s"/>
-      <c r="Y10" t="s"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>31377</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>132092</v>
+      </c>
+      <c r="C11" t="s">
+        <v>113</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="G11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="J11" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="K11" t="s"/>
       <c r="L11" t="s"/>
@@ -1713,10 +1831,10 @@
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="O11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P11" t="n">
         <v>5</v>
@@ -1737,51 +1855,52 @@
       <c r="V11" t="n">
         <v>0</v>
       </c>
-      <c r="W11" t="s"/>
-      <c r="X11" t="s"/>
-      <c r="Y11" t="s"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>31377</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>132093</v>
+      </c>
+      <c r="C12" t="s">
+        <v>118</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="G12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="J12" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="K12" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="L12" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="M12" t="n">
         <v>2</v>
       </c>
       <c r="N12" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="O12" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="P12" t="n">
         <v>2</v>
@@ -1805,50 +1924,54 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>31377</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>132094</v>
+      </c>
+      <c r="C13" t="s">
+        <v>126</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="G13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="J13" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="K13" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="L13" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="M13" t="n">
         <v>4</v>
       </c>
       <c r="N13" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="O13" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P13" t="n">
         <v>4</v>
@@ -1872,50 +1995,54 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>31377</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>132095</v>
+      </c>
+      <c r="C14" t="s">
+        <v>132</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="G14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="J14" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="K14" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="L14" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="M14" t="n">
         <v>2</v>
       </c>
       <c r="N14" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="O14" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="P14" t="n">
         <v>1</v>
@@ -1939,35 +2066,39 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>31377</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>11421</v>
+      </c>
+      <c r="C15" t="s">
+        <v>140</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="G15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="J15" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="K15" t="s"/>
       <c r="L15" t="s"/>
@@ -1975,10 +2106,10 @@
         <v>2</v>
       </c>
       <c r="N15" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="O15" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="P15" t="n">
         <v>3</v>
@@ -1999,51 +2130,52 @@
       <c r="V15" t="n">
         <v>0</v>
       </c>
-      <c r="W15" t="s"/>
-      <c r="X15" t="s"/>
-      <c r="Y15" t="s"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>31377</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>35927</v>
+      </c>
+      <c r="C16" t="s">
+        <v>144</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="G16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="J16" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="K16" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="L16" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
       <c r="N16" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="O16" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P16" t="n">
         <v>1</v>
@@ -2067,35 +2199,39 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>31377</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>132096</v>
+      </c>
+      <c r="C17" t="s">
+        <v>152</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
       <c r="G17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="J17" t="s">
-        <v>139</v>
+        <v>155</v>
       </c>
       <c r="K17" t="s"/>
       <c r="L17" t="s"/>
@@ -2103,10 +2239,10 @@
         <v>2</v>
       </c>
       <c r="N17" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="O17" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P17" t="n">
         <v>3</v>
@@ -2127,51 +2263,52 @@
       <c r="V17" t="n">
         <v>0</v>
       </c>
-      <c r="W17" t="s"/>
-      <c r="X17" t="s"/>
-      <c r="Y17" t="s"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>31377</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>11691</v>
+      </c>
+      <c r="C18" t="s">
+        <v>157</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>141</v>
+        <v>158</v>
       </c>
       <c r="G18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>142</v>
+        <v>159</v>
       </c>
       <c r="J18" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="K18" t="s">
-        <v>144</v>
+        <v>161</v>
       </c>
       <c r="L18" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
       <c r="N18" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="O18" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P18" t="n">
         <v>2</v>
@@ -2195,35 +2332,39 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>31377</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>132097</v>
+      </c>
+      <c r="C19" t="s">
+        <v>164</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="G19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="J19" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="K19" t="s"/>
       <c r="L19" t="s"/>
@@ -2231,10 +2372,10 @@
         <v>3</v>
       </c>
       <c r="N19" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="O19" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="P19" t="n">
         <v>5</v>
@@ -2255,33 +2396,34 @@
       <c r="V19" t="n">
         <v>0</v>
       </c>
-      <c r="W19" t="s"/>
-      <c r="X19" t="s"/>
-      <c r="Y19" t="s"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>31377</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>72556</v>
+      </c>
+      <c r="C20" t="s">
+        <v>169</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
       <c r="G20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>152</v>
+        <v>171</v>
       </c>
       <c r="J20" t="s"/>
       <c r="K20" t="s"/>
@@ -2298,36 +2440,37 @@
       <c r="V20" t="n">
         <v>0</v>
       </c>
-      <c r="W20" t="s"/>
-      <c r="X20" t="s"/>
-      <c r="Y20" t="s"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>31377</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>132098</v>
+      </c>
+      <c r="C21" t="s">
+        <v>172</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>153</v>
+        <v>173</v>
       </c>
       <c r="G21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>154</v>
+        <v>174</v>
       </c>
       <c r="J21" t="s">
-        <v>155</v>
+        <v>175</v>
       </c>
       <c r="K21" t="s"/>
       <c r="L21" t="s"/>
@@ -2335,10 +2478,10 @@
         <v>4</v>
       </c>
       <c r="N21" t="s">
-        <v>156</v>
+        <v>176</v>
       </c>
       <c r="O21" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="P21" t="n">
         <v>5</v>
@@ -2359,42 +2502,43 @@
       <c r="V21" t="n">
         <v>0</v>
       </c>
-      <c r="W21" t="s"/>
-      <c r="X21" t="s"/>
-      <c r="Y21" t="s"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>31377</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>132099</v>
+      </c>
+      <c r="C22" t="s">
+        <v>177</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>157</v>
+        <v>178</v>
       </c>
       <c r="G22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>158</v>
+        <v>179</v>
       </c>
       <c r="J22" t="s">
-        <v>159</v>
+        <v>180</v>
       </c>
       <c r="K22" t="s">
-        <v>160</v>
+        <v>181</v>
       </c>
       <c r="L22" t="s">
-        <v>161</v>
+        <v>182</v>
       </c>
       <c r="M22" t="n">
         <v>4</v>
@@ -2417,50 +2561,54 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>161</v>
+        <v>182</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>31377</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>10060</v>
+      </c>
+      <c r="C23" t="s">
+        <v>183</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>162</v>
+        <v>184</v>
       </c>
       <c r="G23" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>163</v>
+        <v>185</v>
       </c>
       <c r="J23" t="s">
-        <v>164</v>
+        <v>186</v>
       </c>
       <c r="K23" t="s">
-        <v>165</v>
+        <v>187</v>
       </c>
       <c r="L23" t="s">
-        <v>166</v>
+        <v>188</v>
       </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
       <c r="N23" t="s">
-        <v>167</v>
+        <v>189</v>
       </c>
       <c r="O23" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P23" t="n">
         <v>1</v>
@@ -2484,50 +2632,54 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>168</v>
+        <v>190</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>31377</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>132100</v>
+      </c>
+      <c r="C24" t="s">
+        <v>191</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>169</v>
+        <v>192</v>
       </c>
       <c r="G24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>170</v>
+        <v>193</v>
       </c>
       <c r="J24" t="s">
-        <v>171</v>
+        <v>194</v>
       </c>
       <c r="K24" t="s">
-        <v>172</v>
+        <v>195</v>
       </c>
       <c r="L24" t="s">
-        <v>173</v>
+        <v>196</v>
       </c>
       <c r="M24" t="n">
         <v>3</v>
       </c>
       <c r="N24" t="s">
-        <v>174</v>
+        <v>197</v>
       </c>
       <c r="O24" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P24" t="n">
         <v>3</v>
@@ -2551,50 +2703,54 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>173</v>
+        <v>196</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>31377</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>132101</v>
+      </c>
+      <c r="C25" t="s">
+        <v>198</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>175</v>
+        <v>199</v>
       </c>
       <c r="G25" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>176</v>
+        <v>200</v>
       </c>
       <c r="J25" t="s">
-        <v>177</v>
+        <v>201</v>
       </c>
       <c r="K25" t="s">
-        <v>178</v>
+        <v>202</v>
       </c>
       <c r="L25" t="s">
-        <v>179</v>
+        <v>203</v>
       </c>
       <c r="M25" t="n">
         <v>3</v>
       </c>
       <c r="N25" t="s">
-        <v>180</v>
+        <v>204</v>
       </c>
       <c r="O25" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="P25" t="n">
         <v>3</v>
@@ -2618,50 +2774,54 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>181</v>
+        <v>205</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>31377</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>132102</v>
+      </c>
+      <c r="C26" t="s">
+        <v>206</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>182</v>
+        <v>207</v>
       </c>
       <c r="G26" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>183</v>
+        <v>208</v>
       </c>
       <c r="J26" t="s">
-        <v>184</v>
+        <v>209</v>
       </c>
       <c r="K26" t="s">
-        <v>185</v>
+        <v>210</v>
       </c>
       <c r="L26" t="s">
-        <v>186</v>
+        <v>211</v>
       </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
       <c r="N26" t="s">
-        <v>187</v>
+        <v>212</v>
       </c>
       <c r="O26" t="s">
-        <v>188</v>
+        <v>213</v>
       </c>
       <c r="P26" t="n">
         <v>2</v>
@@ -2685,50 +2845,54 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>189</v>
+        <v>214</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>31377</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>132103</v>
+      </c>
+      <c r="C27" t="s">
+        <v>215</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>190</v>
+        <v>216</v>
       </c>
       <c r="G27" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>191</v>
+        <v>217</v>
       </c>
       <c r="J27" t="s">
-        <v>192</v>
+        <v>218</v>
       </c>
       <c r="K27" t="s">
-        <v>193</v>
+        <v>219</v>
       </c>
       <c r="L27" t="s">
-        <v>194</v>
+        <v>220</v>
       </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
       <c r="N27" t="s">
-        <v>195</v>
+        <v>221</v>
       </c>
       <c r="O27" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P27" t="n">
         <v>1</v>
@@ -2752,50 +2916,54 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>196</v>
+        <v>222</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>31377</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>132104</v>
+      </c>
+      <c r="C28" t="s">
+        <v>223</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>197</v>
+        <v>224</v>
       </c>
       <c r="G28" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>198</v>
+        <v>225</v>
       </c>
       <c r="J28" t="s">
-        <v>199</v>
+        <v>226</v>
       </c>
       <c r="K28" t="s">
-        <v>200</v>
+        <v>227</v>
       </c>
       <c r="L28" t="s">
-        <v>201</v>
+        <v>228</v>
       </c>
       <c r="M28" t="n">
         <v>2</v>
       </c>
       <c r="N28" t="s">
-        <v>202</v>
+        <v>229</v>
       </c>
       <c r="O28" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P28" t="n">
         <v>2</v>
@@ -2817,7 +2985,7 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>201</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Dallas/Dallas_shard_197.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_197.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="207">
   <si>
     <t>STR#</t>
   </si>
@@ -147,10 +147,7 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>BrianB6786</t>
-  </si>
-  <si>
-    <t>05/29/2018</t>
+    <t>08/18/2018</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d7258263-r490130756-Econo_Lodge_Inn_Suites-Dallas_Texas.html</t>
@@ -183,9 +180,6 @@
     <t>this place is Econo lodge now.i reserved my my room for two nights using reward points.the room I reserved was around 90 bucks if I been paying cash while other rooms were 66bucks.I am a long time Dimond member and when I requested a ground level room I was told they only put nightly down there(I was staying for two!!!!) when I do get my room it is just regular nasty room I assumed it had whirlpool because it was priced so much higher.wires hanging out of wall ,lamp broken ,1 bulb blown.holes in carpet , stained discolored towels only one wash rag ,one bar soap.i attempted to use the HDMI on the tv with my computer but could not access the HDMI port.i had a woman come beating on my door wanting a towel because it was raining ,she asked me if I liked "rock" I don't think she talking about music!!!lots of homeless hanging around.i didn't sleep at night for I kept checking my truck wasn't broken into.when I did get to sleep around 5 am I was woke by house keeping BEATING on my door at 9:30 AM ugh!!! the staff did seem nice though.More</t>
   </si>
   <si>
-    <t>M'sha J</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d7258263-r471208337-Econo_Lodge_Inn_Suites-Dallas_Texas.html</t>
   </si>
   <si>
@@ -210,9 +204,6 @@
     <t>I booked a hotel at the Econolodge, because my home is being renovated . There was no lights in the room. I informed the man at the desk , he told me that he forgot to tell me that he foroot to tell me. He then proceeded to tell me that they are currently renovating. He also then told me that the other customers don't mind the rooms having lights and if I want a room with lights I would have to pay $10 extra.  I then called Hotwire to inform them . They told me that lights are not included in the rooms. I then informed the representative that it is unsafe because the wires' are hanging out the walls. I still received the same outcome. More</t>
   </si>
   <si>
-    <t>Dewayne M</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d7258263-r469114301-Econo_Lodge_Inn_Suites-Dallas_Texas.html</t>
   </si>
   <si>
@@ -228,9 +219,6 @@
     <t>The service was excellent I had a great time I enjoyed my stay there only thing the housekeeping could have been a little bit better and have a little bit more towels and cups in a room other than that everything would have been great perfectly with the restaurant right across next to it</t>
   </si>
   <si>
-    <t>Aimee A</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d7258263-r453108945-Econo_Lodge_Inn_Suites-Dallas_Texas.html</t>
   </si>
   <si>
@@ -255,9 +243,6 @@
     <t>While the room appeared clean the toilet wouldn't flush and the sink leaked. We also had our uhaul trailer and truck broken into. THIS IS GHETTO LAND...DO NOT STAY HERE! Called the front desk and asked if they could call the police so we could file a report, he said dial 911...really? So I looked up the number and called. The Dallas PD is a joke as well... they said it would be hours before they could come because they were busy. If I could give negative stars I would. The front desk only said it wasn't a guest and of course the tape ran out and showed nothing....not even a sorry from them....More</t>
   </si>
   <si>
-    <t>EewBedBugCity</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d7258263-r418227575-Econo_Lodge_Inn_Suites-Dallas_Texas.html</t>
   </si>
   <si>
@@ -276,9 +261,6 @@
     <t>September 2016</t>
   </si>
   <si>
-    <t>degantes</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d7258263-r413514972-Econo_Lodge_Inn_Suites-Dallas_Texas.html</t>
   </si>
   <si>
@@ -294,9 +276,6 @@
     <t>Very disappointed on my one night stay. Would NOT recommend anyone to stay at this location. I have an 18 wheeler and had to park it outside. This morning my new spare tire was stolen! My neighbors truck was also broken into. Their window was broken and all of their personal items were stolen. This morning we went to speak to the clerk inside the hotel and he only responded "Our surveillance system does not work!!! We couldn't believe it! We still called police to file a report.This Hotel is NOT SAFE at all!!!!  They need to fix their cameras and have security guards at all times!!!</t>
   </si>
   <si>
-    <t>GreyLady0821</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d7258263-r259837881-Econo_Lodge_Inn_Suites-Dallas_Texas.html</t>
   </si>
   <si>
@@ -318,9 +297,6 @@
     <t>Check in was nice and quick.  Went to the room - clean but needs updating, but at the price a good deal.  TV was old and you didn't want to use the "turntable"...it would have fallen off.  Could replace pillows more often, as they were pretty flat.  Once you get to the room,  don't leave!!  Or at least don't go to the convenience store/Jack in the Box after dark!!!  The pan-handlers/moochers/druggies are out in force - and I think the "ladies of the evening" were there too. Scarred the heck out of my grand-daughter when going to the store and Jack in the box. After going back to the room I had to show her that the locks didn't allow anyone to get in.... The next morning I had the door open and the kids saw EMS several rooms down.  Seeing the door was open, the police came and asked us if we'd heard gunshots!  I'm a Choice Hotel Member, but I will never stay at this particular place again.  Any "above average" reviews must have been a BRAVE Trucker - shower and a decent bed is what they are looking for  - but it's all about LOCATION, LOCATION, LOCATION!!More</t>
   </si>
   <si>
-    <t>April B</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d7258263-r199237420-Econo_Lodge_Inn_Suites-Dallas_Texas.html</t>
   </si>
   <si>
@@ -342,9 +318,6 @@
     <t>Overall 90% of the time our stay be great the rooms are clean, the best are comfotable, the parking lots be quiet, the only downsides are the dont always honor reservations made via the 1800#, the older housekeeper is very rude, and they charge an extra $5.00 for the a/c usage in the summer which they control from the office and will cut it off when they feel the need we stay here a lot because of business ... p.s. if you do make a reservation via the 1800# you must check in by 4pm or this location will cancel it and pretend they cannot find it even if you have the email for them to see so you have to pay fill price not the normal 6pm cancel time everywhere else...More</t>
   </si>
   <si>
-    <t>Isaac C</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d7258263-r196692923-Econo_Lodge_Inn_Suites-Dallas_Texas.html</t>
   </si>
   <si>
@@ -357,9 +330,6 @@
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
-    <t>Clifton V</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d7258263-r196413407-Econo_Lodge_Inn_Suites-Dallas_Texas.html</t>
   </si>
   <si>
@@ -372,9 +342,6 @@
     <t>February 2014</t>
   </si>
   <si>
-    <t>Marla C</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d7258263-r183050714-Econo_Lodge_Inn_Suites-Dallas_Texas.html</t>
   </si>
   <si>
@@ -396,9 +363,6 @@
     <t>Omigoodness! If you want a terrible place to stay--come here. Where do the problems begin? The rude/awful front clerk--who blames us that we were upset our room was dirty, complete with a pot full of coffee left from the people before us. . .and on our last day, of two, had started to grow mold. Oh! We were supposed to call downstairs and inform them about the problem, so they could have corrected the problem. Funny. We did on day one of our stay. Then the breakfast was poor. The food was old, not presented nicely, and the breakfast area was dirty. Then there's the problem with security. There was a back door left open all night; this is a door that is supposed to be closed and only people with keys are allowed in.  Hmm? Whom do you suppose in tramping in/out of the door all night long? Not impressed. As a regular trip advisor and a Wyndham Rewards customer. . .I really suggest you stay away from this place.More</t>
   </si>
   <si>
-    <t>Moe92136</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d7258263-r181311119-Econo_Lodge_Inn_Suites-Dallas_Texas.html</t>
   </si>
   <si>
@@ -414,9 +378,6 @@
     <t>Was very quiet. No problems at night. The beds were comfortable and the room was clean. No problems at check in. It was a nice stay. Checked out before breakfast, didn't look like they were making it anyway.</t>
   </si>
   <si>
-    <t>Arlon J</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d7258263-r179445733-Econo_Lodge_Inn_Suites-Dallas_Texas.html</t>
   </si>
   <si>
@@ -438,9 +399,6 @@
     <t>When you first open the door to the room, cigarette smoke greets you and knock you over; the bed look as if someone had playing in it.  There was a dirty wash cloth that was hanging over the shower stall and shower stall had not been cleaned. The furniture was all scracthed and beat up and the mattress on the bed was very worn and lumpy, had sink holes where bodies have slept often.  When I asked for a different room for especially because of the cigarette smoke I was told other rooms available were not as nice as the one that I had..........................Can you believe it?  Not as nice.........More</t>
   </si>
   <si>
-    <t>Scott H</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d7258263-r175692438-Econo_Lodge_Inn_Suites-Dallas_Texas.html</t>
   </si>
   <si>
@@ -448,9 +406,6 @@
   </si>
   <si>
     <t>09/04/2013</t>
-  </si>
-  <si>
-    <t>Catherine K</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d7258263-r162546426-Econo_Lodge_Inn_Suites-Dallas_Texas.html</t>
@@ -468,7 +423,7 @@
     <t>We booked a room here because we were traveling to Dallas for a softball tournament and it was close to the fields.  That was the ONLY benefit of this place.  When I called prior to our stay, I was told that there was a working pool and HOT breakfast included with every stay.  When we arrived this was not the case.  The pool was closed and the breakfast consisted of 4 cold cereal choices, milk that had been in the same open pitcher for days (it had a thick, nasty dried milk ring at the top) and still frozen muffins.  
 We have a service dog and the fist night we were there my husband took him out for a walk when a police officer approached him and warned him that it was a very dangerous area and to be careful and aware of his surroundings while we were there.  I never left the room without my husband for this reason.  My husband was approached by drug addicts asking for money every time he took a step outside our door.
 Our room was nothing special, but for the price we didn't have high expectations.  We did, however, hope to have a functioning toilet, wall safe, fridge, and microwave.  Unfortunately, each of those items had issues and when we alerted hotel management, the owner's response was, "Oh." The cleanliness of the room also left something to be desired.
-Our reservation originally was...We booked a room here because we were traveling to Dallas for a softball tournament and it was close to the fields.  That was the ONLY benefit of this place.  When I called prior to our stay, I was told that there was a working pool and HOT breakfast included with every stay.  When we arrived this was not the case.  The pool was closed and the breakfast consisted of 4 cold cereal choices, milk that had been in the same open pitcher for days (it had a thick, nasty dried milk ring at the top) and still frozen muffins.  We have a service dog and the fist night we were there my husband took him out for a walk when a police officer approached him and warned him that it was a very dangerous area and to be careful and aware of his surroundings while we were there.  I never left the room without my husband for this reason.  My husband was approached by drug addicts asking for money every time he took a step outside our door.Our room was nothing special, but for the price we didn't have high expectations.  We did, however, hope to have a functioning toilet, wall safe, fridge, and microwave.  Unfortunately, each of those items had issues and when we alerted hotel management, the owner's response was, "Oh." The cleanliness of the room also left something to be desired.Our reservation originally was for 3 nights.  After our first day there, the softball tournament we were in town for was cancelled due to weather and we informed the young man at the front desk that we would be staying the second night, but checking out a day early.  He said that was no problem and we trusted that was all we needed to do.  He also reactivated our room key that had stopped working, but never asked for ID to ensure we were authorized access to that room.  Unfortunately, when my husband went downstairs to check out at 9:40am, the owner/manager told him that he had no record of our notice to leave early and charged us for the 3rd night anyway.  When my husband objected, his reply was, "It's not too late to stay!".  This was by far the WORST hotel experience we have ever had and would caution anyone considering a room here to stay ANYWHERE else.  Really, you'd be better off in your car.The management here are rude and dishonest, at best.  The rooms are in desperate need of deep cleaning, as well as the most basic routine maintenance and the advertised features should be updated to reflect a more accurate picture of what you get here: Toilets that don't flush properly, room...MoreShow less</t>
+Our reservation originally was...We booked a room here because we were traveling to Dallas for a softball tournament and it was close to the fields.  That was the ONLY benefit of this place.  When I called prior to our stay, I was told that there was a working pool and HOT breakfast included with every stay.  When we arrived this was not the case.  The pool was closed and the breakfast consisted of 4 cold cereal choices, milk that had been in the same open pitcher for days (it had a thick, nasty dried milk ring at the top) and still frozen muffins.  We have a service dog and the fist night we were there my husband took him out for a walk when a police officer approached him and warned him that it was a very dangerous area and to be careful and aware of his surroundings while we were there.  I never left the room without my husband for this reason.  My husband was approached by drug addicts asking for money every time he took a step outside our door.Our room was nothing special, but for the price we didn't have high expectations.  We did, however, hope to have a functioning toilet, wall safe, fridge, and microwave.  Unfortunately, each of those items had issues and when we alerted hotel management, the owner's response was, "Oh." The cleanliness of the room also left something to be desired.Our reservation originally was for 3 nights.  After our first day there, the softball tournament we were in town for was cancelled due to weather and we informed the young man at the front desk that we would be staying the second night, but checking out a day early.  He said that was no problem and we trusted that was all we needed to do.  He also reactivated our room key that had stopped working, but never asked for ID to ensure we were authorized access to that room.  Unfortunately, when my husband went downstairs to check out at 9:40am, the owner/manager told him that he had no record of our notice to leave early and charged us for the 3rd night anyway.  When my husband objected, his reply was, "It's not too late to stay!".  This was by far the WORST hotel experience we have ever had and would caution anyone considering a room here to stay ANYWHERE else.  Really, you'd be better off in your car.The management here are rude and dishonest, at best.  The rooms are in desperate need of deep cleaning, as well as the most basic routine maintenance and the advertised features should be updated to reflect a more accurate picture of what you get here: Toilets that don't flush properly, room safes that don't work, no pool, the very most basic continental breakfast (as long as you don't mind eating food that is still frozen), and rude owner who actually hung up on my husband the day after we checked out when he called to ask his name, as it wasn't anywhere on our receipt.  They have no interest whatsoever in anything resembling "hospitality".  This place gives Ramada a bad name and I hope that at some point, someone from their corporate office pays a surprise visit to this location.MoreShow less</t>
   </si>
   <si>
     <t>May 2013</t>
@@ -477,10 +432,7 @@
     <t>We booked a room here because we were traveling to Dallas for a softball tournament and it was close to the fields.  That was the ONLY benefit of this place.  When I called prior to our stay, I was told that there was a working pool and HOT breakfast included with every stay.  When we arrived this was not the case.  The pool was closed and the breakfast consisted of 4 cold cereal choices, milk that had been in the same open pitcher for days (it had a thick, nasty dried milk ring at the top) and still frozen muffins.  
 We have a service dog and the fist night we were there my husband took him out for a walk when a police officer approached him and warned him that it was a very dangerous area and to be careful and aware of his surroundings while we were there.  I never left the room without my husband for this reason.  My husband was approached by drug addicts asking for money every time he took a step outside our door.
 Our room was nothing special, but for the price we didn't have high expectations.  We did, however, hope to have a functioning toilet, wall safe, fridge, and microwave.  Unfortunately, each of those items had issues and when we alerted hotel management, the owner's response was, "Oh." The cleanliness of the room also left something to be desired.
-Our reservation originally was...We booked a room here because we were traveling to Dallas for a softball tournament and it was close to the fields.  That was the ONLY benefit of this place.  When I called prior to our stay, I was told that there was a working pool and HOT breakfast included with every stay.  When we arrived this was not the case.  The pool was closed and the breakfast consisted of 4 cold cereal choices, milk that had been in the same open pitcher for days (it had a thick, nasty dried milk ring at the top) and still frozen muffins.  We have a service dog and the fist night we were there my husband took him out for a walk when a police officer approached him and warned him that it was a very dangerous area and to be careful and aware of his surroundings while we were there.  I never left the room without my husband for this reason.  My husband was approached by drug addicts asking for money every time he took a step outside our door.Our room was nothing special, but for the price we didn't have high expectations.  We did, however, hope to have a functioning toilet, wall safe, fridge, and microwave.  Unfortunately, each of those items had issues and when we alerted hotel management, the owner's response was, "Oh." The cleanliness of the room also left something to be desired.Our reservation originally was for 3 nights.  After our first day there, the softball tournament we were in town for was cancelled due to weather and we informed the young man at the front desk that we would be staying the second night, but checking out a day early.  He said that was no problem and we trusted that was all we needed to do.  He also reactivated our room key that had stopped working, but never asked for ID to ensure we were authorized access to that room.  Unfortunately, when my husband went downstairs to check out at 9:40am, the owner/manager told him that he had no record of our notice to leave early and charged us for the 3rd night anyway.  When my husband objected, his reply was, "It's not too late to stay!".  This was by far the WORST hotel experience we have ever had and would caution anyone considering a room here to stay ANYWHERE else.  Really, you'd be better off in your car.The management here are rude and dishonest, at best.  The rooms are in desperate need of deep cleaning, as well as the most basic routine maintenance and the advertised features should be updated to reflect a more accurate picture of what you get here: Toilets that don't flush properly, room...More</t>
-  </si>
-  <si>
-    <t>Maricela P</t>
+Our reservation originally was...We booked a room here because we were traveling to Dallas for a softball tournament and it was close to the fields.  That was the ONLY benefit of this place.  When I called prior to our stay, I was told that there was a working pool and HOT breakfast included with every stay.  When we arrived this was not the case.  The pool was closed and the breakfast consisted of 4 cold cereal choices, milk that had been in the same open pitcher for days (it had a thick, nasty dried milk ring at the top) and still frozen muffins.  We have a service dog and the fist night we were there my husband took him out for a walk when a police officer approached him and warned him that it was a very dangerous area and to be careful and aware of his surroundings while we were there.  I never left the room without my husband for this reason.  My husband was approached by drug addicts asking for money every time he took a step outside our door.Our room was nothing special, but for the price we didn't have high expectations.  We did, however, hope to have a functioning toilet, wall safe, fridge, and microwave.  Unfortunately, each of those items had issues and when we alerted hotel management, the owner's response was, "Oh." The cleanliness of the room also left something to be desired.Our reservation originally was for 3 nights.  After our first day there, the softball tournament we were in town for was cancelled due to weather and we informed the young man at the front desk that we would be staying the second night, but checking out a day early.  He said that was no problem and we trusted that was all we needed to do.  He also reactivated our room key that had stopped working, but never asked for ID to ensure we were authorized access to that room.  Unfortunately, when my husband went downstairs to check out at 9:40am, the owner/manager told him that he had no record of our notice to leave early and charged us for the 3rd night anyway.  When my husband objected, his reply was, "It's not too late to stay!".  This was by far the WORST hotel experience we have ever had and would caution anyone considering a room here to stay ANYWHERE else.  Really, you'd be better off in your car.The management here are rude and dishonest, at best.  The rooms are in desperate need of deep cleaning, as well as the most basic routine maintenance and the advertised features should be updated to reflect a more accurate picture of what you get here: Toilets that don't flush properly, room safes that don't work, no pool, the very most basic continental breakfast (as long as you don't mind eating food that is still frozen), and rude owner who actually hung up on my husband the day after we checked out when he called to ask his name, as it wasn't anywhere on our receipt.  They have no interest whatsoever in anything resembling "hospitality".  This place gives Ramada a bad name and I hope that at some point, someone from their corporate office pays a surprise visit to this location.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d7258263-r160510526-Econo_Lodge_Inn_Suites-Dallas_Texas.html</t>
@@ -495,9 +447,6 @@
     <t>April 2013</t>
   </si>
   <si>
-    <t>Claudette S</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d7258263-r155170714-Econo_Lodge_Inn_Suites-Dallas_Texas.html</t>
   </si>
   <si>
@@ -516,9 +465,6 @@
     <t>March 2013</t>
   </si>
   <si>
-    <t>scarred_owl</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d7258263-r152718139-Econo_Lodge_Inn_Suites-Dallas_Texas.html</t>
   </si>
   <si>
@@ -531,16 +477,22 @@
     <t>February 2013</t>
   </si>
   <si>
-    <t>RMM60</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d7258263-r150896495-Econo_Lodge_Inn_Suites-Dallas_Texas.html</t>
   </si>
   <si>
     <t>150896495</t>
   </si>
   <si>
-    <t>KAREN L</t>
+    <t>01/28/2013</t>
+  </si>
+  <si>
+    <t>WOW - Very Impressed</t>
+  </si>
+  <si>
+    <t>What a nice room - everything about the room was great.  Very comfortable bed.  Everything was clean and in working order.  Included a fridge and microwave.  Only got to stay one night - would have liked to stay much longer!</t>
+  </si>
+  <si>
+    <t>January 2013</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d7258263-r143437400-Econo_Lodge_Inn_Suites-Dallas_Texas.html</t>
@@ -555,9 +507,6 @@
     <t>October 2012</t>
   </si>
   <si>
-    <t>Smileystarprince</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d7258263-r136321379-Econo_Lodge_Inn_Suites-Dallas_Texas.html</t>
   </si>
   <si>
@@ -573,9 +522,6 @@
     <t xml:space="preserve">I enjoyed my stay in this hotel ...except the free wifi was too week the connection would cut off both my android and iPhone would get cut off :/ ...the pool was nice and warm but too many leafs from the near by trees...I was a little disgusted when exploring the restroom to find a sexual advertisement writen on door :/...over all I actually was satisfied with my stay at ramada </t>
   </si>
   <si>
-    <t>Jon C</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d7258263-r132938375-Econo_Lodge_Inn_Suites-Dallas_Texas.html</t>
   </si>
   <si>
@@ -597,9 +543,6 @@
     <t>Room seemed kinda clean with old bed linens, A/C never really cooled the room to my liking and the controls were broken so I had no way of setting it properly. Someone came knocking on my door at 9:30 PM as though they knew who I was. I never opened the door, but the motel has a security golf cart with 3 flat tires! Breakfast was a joke, yesterday they had a frozen McDonalds sausage biscuit out in the pastries box. They have a good selection of cereal but basically nothing else. Security is a big concern here! Owners seem to be doing just enough to keep the business of trucking companies that need a place to house new hires during orientation only.More</t>
   </si>
   <si>
-    <t>verylucrative</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d7258263-r128194801-Econo_Lodge_Inn_Suites-Dallas_Texas.html</t>
   </si>
   <si>
@@ -618,9 +561,6 @@
     <t>April 2012</t>
   </si>
   <si>
-    <t>rickyline</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d7258263-r94799922-Econo_Lodge_Inn_Suites-Dallas_Texas.html</t>
   </si>
   <si>
@@ -642,9 +582,6 @@
     <t>I was here for two nights for spending some time out. Umm, wanted some real good things happen to me. And guess what, I ended up at perfect place. This place is located at silent location, the rooms are clean and worth money. But above all, the guy at the front desk is amazing. He has some real good accent, sweet smile on his face, handsome, with nice sense of humour.  He gave me perfect service at night time, like seen such decency nowhere, seriously!! The guy in the morning there was ok.  Above all, I would rate this motel 3.5, but that guy I would give 10 on 10. You can try his gesture if you see him some time.More</t>
   </si>
   <si>
-    <t>grendel_matrix</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d7258263-r19481575-Econo_Lodge_Inn_Suites-Dallas_Texas.html</t>
   </si>
   <si>
@@ -669,9 +606,6 @@
     <t>Everything was pretty good on check in evne though it was late at night, however one thing that annoyed me was getting knocks on the door from the maids at10:30 well before it would be normal check out time to clean the room.  But the kicker is I had called the night before check out and asked for a late check out with which the clerk who answered the phone said was fine but the next day while taking a shower, the manager or asst manager pounded on the door and my gf said he told her we had to leave immediately and that any late check outs had to be cleared thru him, stupid me, I should have known that right, because obviously I"m psychic.  Upon returning home I noticed that he charged my card for an additional day even though I hadn't stayed so now as we speak I"m disputing this with my bank, and I called Ramada's customer service to let them know and within 30 mins later I get a call from the manager person who basically calls me a liar and tells me I can drive down there anytime to review the video for whatever reason, anyways, avoid at all costs unless you like getting screwed over.More</t>
   </si>
   <si>
-    <t>LouisianaMadea</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d7258263-r13285610-Econo_Lodge_Inn_Suites-Dallas_Texas.html</t>
   </si>
   <si>
@@ -691,9 +625,6 @@
   </si>
   <si>
     <t>Having to go to Dallas Texas,I went on the internet to fnd a hotel closest to the area I needed to be.The Ramada Ltd. was recommended by hotels.com. The second day of my visit which was a cold and wet and rainy day. That afternoon when the toilet was flushed it proceeded to overflow. There was a plunger already in the room.(how lucky and convient that was!!!!).Iplunged the toilet to stop it from running over.I called the front desk to inform them what had happened.The clerk informed me that i needed to use the towels to mop the water up. There was too much water on the floor.She informed me that i had a problem and she was the only one at the desk and that was the best that she could do for me.She did however take the time to bring me a bag of rags for me to mop with.Then she later was gracious enough to bring me a mop and bucket to mop with after I called the hotel managerr/owner who hung the phone up in my face.She eventually came and mopped the room and I don't think she liked it one bit.Stay away from the hotel will never visit again!!!!More</t>
-  </si>
-  <si>
-    <t>TXTraveller55</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d7258263-r8510296-Econo_Lodge_Inn_Suites-Dallas_Texas.html</t>
@@ -1216,47 +1147,43 @@
       <c r="A2" t="n">
         <v>31377</v>
       </c>
-      <c r="B2" t="n">
-        <v>132086</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
         <v>43</v>
       </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>44</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>45</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>46</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>47</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>48</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>49</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>50</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="n">
+        <v>2</v>
+      </c>
+      <c r="N2" t="s">
         <v>51</v>
       </c>
-      <c r="M2" t="n">
-        <v>2</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>52</v>
-      </c>
-      <c r="O2" t="s">
-        <v>53</v>
       </c>
       <c r="P2" t="n">
         <v>1</v>
@@ -1276,54 +1203,50 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>31377</v>
       </c>
-      <c r="B3" t="n">
-        <v>132087</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
         <v>55</v>
       </c>
-      <c r="D3" t="n">
-        <v>2</v>
-      </c>
-      <c r="E3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="J3" t="s">
         <v>56</v>
       </c>
-      <c r="G3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>57</v>
       </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>58</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
         <v>59</v>
       </c>
-      <c r="L3" t="s">
+      <c r="O3" t="s">
         <v>60</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="s">
-        <v>61</v>
-      </c>
-      <c r="O3" t="s">
-        <v>62</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -1337,54 +1260,50 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>31377</v>
       </c>
-      <c r="B4" t="n">
-        <v>132088</v>
-      </c>
-      <c r="C4" t="s">
-        <v>64</v>
-      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K4" t="s">
         <v>65</v>
       </c>
-      <c r="G4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="L4" t="s">
         <v>66</v>
-      </c>
-      <c r="J4" t="s">
-        <v>67</v>
-      </c>
-      <c r="K4" t="s">
-        <v>68</v>
-      </c>
-      <c r="L4" t="s">
-        <v>69</v>
       </c>
       <c r="M4" t="n">
         <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="O4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -1398,54 +1317,50 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>31377</v>
       </c>
-      <c r="B5" t="n">
-        <v>8288</v>
-      </c>
-      <c r="C5" t="s">
-        <v>70</v>
-      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J5" t="s">
+        <v>69</v>
+      </c>
+      <c r="K5" t="s">
+        <v>70</v>
+      </c>
+      <c r="L5" t="s">
         <v>71</v>
       </c>
-      <c r="G5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
         <v>72</v>
       </c>
-      <c r="J5" t="s">
+      <c r="O5" t="s">
         <v>73</v>
-      </c>
-      <c r="K5" t="s">
-        <v>74</v>
-      </c>
-      <c r="L5" t="s">
-        <v>75</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="s">
-        <v>76</v>
-      </c>
-      <c r="O5" t="s">
-        <v>77</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -1459,54 +1374,50 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>31377</v>
       </c>
-      <c r="B6" t="n">
-        <v>132089</v>
-      </c>
-      <c r="C6" t="s">
-        <v>79</v>
-      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J6" t="s">
+        <v>77</v>
+      </c>
+      <c r="K6" t="s">
+        <v>78</v>
+      </c>
+      <c r="L6" t="s">
+        <v>79</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
         <v>80</v>
       </c>
-      <c r="G6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" t="s">
-        <v>81</v>
-      </c>
-      <c r="J6" t="s">
-        <v>82</v>
-      </c>
-      <c r="K6" t="s">
-        <v>83</v>
-      </c>
-      <c r="L6" t="s">
-        <v>84</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="s">
-        <v>85</v>
-      </c>
       <c r="O6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P6" t="n">
         <v>1</v>
@@ -1526,54 +1437,50 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>31377</v>
       </c>
-      <c r="B7" t="n">
-        <v>132090</v>
-      </c>
-      <c r="C7" t="s">
-        <v>86</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F7" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
         <v>46</v>
       </c>
-      <c r="H7" t="s">
-        <v>47</v>
-      </c>
       <c r="I7" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="J7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="K7" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="L7" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
       <c r="N7" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="O7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="n">
@@ -1591,54 +1498,50 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>31377</v>
       </c>
-      <c r="B8" t="n">
-        <v>132091</v>
-      </c>
-      <c r="C8" t="s">
-        <v>92</v>
-      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F8" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
         <v>46</v>
       </c>
-      <c r="H8" t="s">
-        <v>47</v>
-      </c>
       <c r="I8" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="J8" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="K8" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="L8" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="M8" t="n">
         <v>3</v>
       </c>
       <c r="N8" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="O8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="n">
@@ -1658,54 +1561,50 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>31377</v>
       </c>
-      <c r="B9" t="n">
-        <v>13559</v>
-      </c>
-      <c r="C9" t="s">
-        <v>100</v>
-      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
         <v>46</v>
       </c>
-      <c r="H9" t="s">
-        <v>47</v>
-      </c>
       <c r="I9" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="J9" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="K9" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="L9" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="M9" t="n">
         <v>3</v>
       </c>
       <c r="N9" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="O9" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="P9" t="n">
         <v>3</v>
@@ -1729,39 +1628,35 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>31377</v>
       </c>
-      <c r="B10" t="n">
-        <v>114603</v>
-      </c>
-      <c r="C10" t="s">
-        <v>108</v>
-      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
         <v>46</v>
       </c>
-      <c r="H10" t="s">
-        <v>47</v>
-      </c>
       <c r="I10" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="J10" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="K10" t="s"/>
       <c r="L10" t="s"/>
@@ -1769,10 +1664,10 @@
         <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="O10" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="P10" t="n">
         <v>3</v>
@@ -1793,37 +1688,36 @@
       <c r="V10" t="n">
         <v>0</v>
       </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>31377</v>
       </c>
-      <c r="B11" t="n">
-        <v>132092</v>
-      </c>
-      <c r="C11" t="s">
-        <v>113</v>
-      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
         <v>46</v>
       </c>
-      <c r="H11" t="s">
-        <v>47</v>
-      </c>
       <c r="I11" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="J11" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="K11" t="s"/>
       <c r="L11" t="s"/>
@@ -1831,10 +1725,10 @@
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="O11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P11" t="n">
         <v>5</v>
@@ -1855,52 +1749,51 @@
       <c r="V11" t="n">
         <v>0</v>
       </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>31377</v>
       </c>
-      <c r="B12" t="n">
-        <v>132093</v>
-      </c>
-      <c r="C12" t="s">
-        <v>118</v>
-      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F12" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
         <v>46</v>
       </c>
-      <c r="H12" t="s">
-        <v>47</v>
-      </c>
       <c r="I12" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="J12" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="K12" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="L12" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="M12" t="n">
         <v>2</v>
       </c>
       <c r="N12" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="O12" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="P12" t="n">
         <v>2</v>
@@ -1924,54 +1817,50 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>31377</v>
       </c>
-      <c r="B13" t="n">
-        <v>132094</v>
-      </c>
-      <c r="C13" t="s">
-        <v>126</v>
-      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F13" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
         <v>46</v>
       </c>
-      <c r="H13" t="s">
-        <v>47</v>
-      </c>
       <c r="I13" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="J13" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="K13" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="L13" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="M13" t="n">
         <v>4</v>
       </c>
       <c r="N13" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="O13" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P13" t="n">
         <v>4</v>
@@ -1995,54 +1884,50 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>31377</v>
       </c>
-      <c r="B14" t="n">
-        <v>132095</v>
-      </c>
-      <c r="C14" t="s">
-        <v>132</v>
-      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F14" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
         <v>46</v>
       </c>
-      <c r="H14" t="s">
-        <v>47</v>
-      </c>
       <c r="I14" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="J14" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="K14" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="L14" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="M14" t="n">
         <v>2</v>
       </c>
       <c r="N14" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="O14" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="P14" t="n">
         <v>1</v>
@@ -2066,39 +1951,35 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>31377</v>
       </c>
-      <c r="B15" t="n">
-        <v>11421</v>
-      </c>
-      <c r="C15" t="s">
-        <v>140</v>
-      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F15" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
         <v>46</v>
       </c>
-      <c r="H15" t="s">
-        <v>47</v>
-      </c>
       <c r="I15" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="J15" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="K15" t="s"/>
       <c r="L15" t="s"/>
@@ -2106,10 +1987,10 @@
         <v>2</v>
       </c>
       <c r="N15" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="O15" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="P15" t="n">
         <v>3</v>
@@ -2130,52 +2011,51 @@
       <c r="V15" t="n">
         <v>0</v>
       </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>31377</v>
       </c>
-      <c r="B16" t="n">
-        <v>35927</v>
-      </c>
-      <c r="C16" t="s">
-        <v>144</v>
-      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F16" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
         <v>46</v>
       </c>
-      <c r="H16" t="s">
-        <v>47</v>
-      </c>
       <c r="I16" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="J16" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="K16" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="L16" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
       <c r="N16" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="O16" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P16" t="n">
         <v>1</v>
@@ -2199,39 +2079,35 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>31377</v>
       </c>
-      <c r="B17" t="n">
-        <v>132096</v>
-      </c>
-      <c r="C17" t="s">
-        <v>152</v>
-      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F17" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
         <v>46</v>
       </c>
-      <c r="H17" t="s">
-        <v>47</v>
-      </c>
       <c r="I17" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="J17" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="K17" t="s"/>
       <c r="L17" t="s"/>
@@ -2239,10 +2115,10 @@
         <v>2</v>
       </c>
       <c r="N17" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="O17" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P17" t="n">
         <v>3</v>
@@ -2263,52 +2139,51 @@
       <c r="V17" t="n">
         <v>0</v>
       </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>31377</v>
       </c>
-      <c r="B18" t="n">
-        <v>11691</v>
-      </c>
-      <c r="C18" t="s">
-        <v>157</v>
-      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F18" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s">
         <v>46</v>
       </c>
-      <c r="H18" t="s">
-        <v>47</v>
-      </c>
       <c r="I18" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="J18" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
       <c r="K18" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="L18" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
       <c r="N18" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="O18" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P18" t="n">
         <v>2</v>
@@ -2332,39 +2207,35 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>31377</v>
       </c>
-      <c r="B19" t="n">
-        <v>132097</v>
-      </c>
-      <c r="C19" t="s">
-        <v>164</v>
-      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F19" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
       <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
         <v>46</v>
       </c>
-      <c r="H19" t="s">
-        <v>47</v>
-      </c>
       <c r="I19" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
       <c r="J19" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="K19" t="s"/>
       <c r="L19" t="s"/>
@@ -2372,10 +2243,10 @@
         <v>3</v>
       </c>
       <c r="N19" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
       <c r="O19" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="P19" t="n">
         <v>5</v>
@@ -2396,81 +2267,103 @@
       <c r="V19" t="n">
         <v>0</v>
       </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>31377</v>
       </c>
-      <c r="B20" t="n">
-        <v>72556</v>
-      </c>
-      <c r="C20" t="s">
-        <v>169</v>
-      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F20" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s">
         <v>46</v>
       </c>
-      <c r="H20" t="s">
-        <v>47</v>
-      </c>
       <c r="I20" t="s">
-        <v>171</v>
-      </c>
-      <c r="J20" t="s"/>
-      <c r="K20" t="s"/>
-      <c r="L20" t="s"/>
-      <c r="M20" t="s"/>
-      <c r="N20" t="s"/>
-      <c r="O20" t="s"/>
-      <c r="P20" t="s"/>
-      <c r="Q20" t="s"/>
-      <c r="R20" t="s"/>
-      <c r="S20" t="s"/>
+        <v>152</v>
+      </c>
+      <c r="J20" t="s">
+        <v>153</v>
+      </c>
+      <c r="K20" t="s">
+        <v>154</v>
+      </c>
+      <c r="L20" t="s">
+        <v>155</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>156</v>
+      </c>
+      <c r="O20" t="s">
+        <v>52</v>
+      </c>
+      <c r="P20" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>5</v>
+      </c>
+      <c r="R20" t="n">
+        <v>4</v>
+      </c>
+      <c r="S20" t="n">
+        <v>5</v>
+      </c>
       <c r="T20" t="s"/>
-      <c r="U20" t="s"/>
+      <c r="U20" t="n">
+        <v>4</v>
+      </c>
       <c r="V20" t="n">
         <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>31377</v>
       </c>
-      <c r="B21" t="n">
-        <v>132098</v>
-      </c>
-      <c r="C21" t="s">
-        <v>172</v>
-      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F21" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
       <c r="G21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" t="s">
         <v>46</v>
       </c>
-      <c r="H21" t="s">
-        <v>47</v>
-      </c>
       <c r="I21" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
       <c r="J21" t="s">
-        <v>175</v>
+        <v>159</v>
       </c>
       <c r="K21" t="s"/>
       <c r="L21" t="s"/>
@@ -2478,10 +2371,10 @@
         <v>4</v>
       </c>
       <c r="N21" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
       <c r="O21" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="P21" t="n">
         <v>5</v>
@@ -2502,43 +2395,42 @@
       <c r="V21" t="n">
         <v>0</v>
       </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>31377</v>
       </c>
-      <c r="B22" t="n">
-        <v>132099</v>
-      </c>
-      <c r="C22" t="s">
-        <v>177</v>
-      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F22" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
       <c r="G22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" t="s">
         <v>46</v>
       </c>
-      <c r="H22" t="s">
-        <v>47</v>
-      </c>
       <c r="I22" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="J22" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="K22" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
       <c r="L22" t="s">
-        <v>182</v>
+        <v>165</v>
       </c>
       <c r="M22" t="n">
         <v>4</v>
@@ -2561,54 +2453,50 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>182</v>
+        <v>165</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>31377</v>
       </c>
-      <c r="B23" t="n">
-        <v>10060</v>
-      </c>
-      <c r="C23" t="s">
-        <v>183</v>
-      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F23" t="s">
-        <v>184</v>
+        <v>166</v>
       </c>
       <c r="G23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" t="s">
         <v>46</v>
       </c>
-      <c r="H23" t="s">
-        <v>47</v>
-      </c>
       <c r="I23" t="s">
-        <v>185</v>
+        <v>167</v>
       </c>
       <c r="J23" t="s">
-        <v>186</v>
+        <v>168</v>
       </c>
       <c r="K23" t="s">
-        <v>187</v>
+        <v>169</v>
       </c>
       <c r="L23" t="s">
-        <v>188</v>
+        <v>170</v>
       </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
       <c r="N23" t="s">
-        <v>189</v>
+        <v>171</v>
       </c>
       <c r="O23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P23" t="n">
         <v>1</v>
@@ -2632,54 +2520,50 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>190</v>
+        <v>172</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>31377</v>
       </c>
-      <c r="B24" t="n">
-        <v>132100</v>
-      </c>
-      <c r="C24" t="s">
-        <v>191</v>
-      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F24" t="s">
-        <v>192</v>
+        <v>173</v>
       </c>
       <c r="G24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" t="s">
         <v>46</v>
       </c>
-      <c r="H24" t="s">
-        <v>47</v>
-      </c>
       <c r="I24" t="s">
-        <v>193</v>
+        <v>174</v>
       </c>
       <c r="J24" t="s">
-        <v>194</v>
+        <v>175</v>
       </c>
       <c r="K24" t="s">
-        <v>195</v>
+        <v>176</v>
       </c>
       <c r="L24" t="s">
-        <v>196</v>
+        <v>177</v>
       </c>
       <c r="M24" t="n">
         <v>3</v>
       </c>
       <c r="N24" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
       <c r="O24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P24" t="n">
         <v>3</v>
@@ -2703,54 +2587,50 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>196</v>
+        <v>177</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>31377</v>
       </c>
-      <c r="B25" t="n">
-        <v>132101</v>
-      </c>
-      <c r="C25" t="s">
-        <v>198</v>
-      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F25" t="s">
-        <v>199</v>
+        <v>179</v>
       </c>
       <c r="G25" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" t="s">
         <v>46</v>
       </c>
-      <c r="H25" t="s">
-        <v>47</v>
-      </c>
       <c r="I25" t="s">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="J25" t="s">
-        <v>201</v>
+        <v>181</v>
       </c>
       <c r="K25" t="s">
-        <v>202</v>
+        <v>182</v>
       </c>
       <c r="L25" t="s">
-        <v>203</v>
+        <v>183</v>
       </c>
       <c r="M25" t="n">
         <v>3</v>
       </c>
       <c r="N25" t="s">
-        <v>204</v>
+        <v>184</v>
       </c>
       <c r="O25" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="P25" t="n">
         <v>3</v>
@@ -2774,54 +2654,50 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>205</v>
+        <v>185</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>31377</v>
       </c>
-      <c r="B26" t="n">
-        <v>132102</v>
-      </c>
-      <c r="C26" t="s">
-        <v>206</v>
-      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F26" t="s">
-        <v>207</v>
+        <v>186</v>
       </c>
       <c r="G26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" t="s">
         <v>46</v>
       </c>
-      <c r="H26" t="s">
-        <v>47</v>
-      </c>
       <c r="I26" t="s">
-        <v>208</v>
+        <v>187</v>
       </c>
       <c r="J26" t="s">
-        <v>209</v>
+        <v>188</v>
       </c>
       <c r="K26" t="s">
-        <v>210</v>
+        <v>189</v>
       </c>
       <c r="L26" t="s">
-        <v>211</v>
+        <v>190</v>
       </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
       <c r="N26" t="s">
-        <v>212</v>
+        <v>191</v>
       </c>
       <c r="O26" t="s">
-        <v>213</v>
+        <v>192</v>
       </c>
       <c r="P26" t="n">
         <v>2</v>
@@ -2845,54 +2721,50 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>214</v>
+        <v>193</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>31377</v>
       </c>
-      <c r="B27" t="n">
-        <v>132103</v>
-      </c>
-      <c r="C27" t="s">
-        <v>215</v>
-      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F27" t="s">
-        <v>216</v>
+        <v>194</v>
       </c>
       <c r="G27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27" t="s">
         <v>46</v>
       </c>
-      <c r="H27" t="s">
-        <v>47</v>
-      </c>
       <c r="I27" t="s">
-        <v>217</v>
+        <v>195</v>
       </c>
       <c r="J27" t="s">
-        <v>218</v>
+        <v>196</v>
       </c>
       <c r="K27" t="s">
-        <v>219</v>
+        <v>197</v>
       </c>
       <c r="L27" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
       <c r="N27" t="s">
-        <v>221</v>
+        <v>199</v>
       </c>
       <c r="O27" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P27" t="n">
         <v>1</v>
@@ -2916,54 +2788,50 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>222</v>
+        <v>200</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>31377</v>
       </c>
-      <c r="B28" t="n">
-        <v>132104</v>
-      </c>
-      <c r="C28" t="s">
-        <v>223</v>
-      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F28" t="s">
-        <v>224</v>
+        <v>201</v>
       </c>
       <c r="G28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H28" t="s">
         <v>46</v>
       </c>
-      <c r="H28" t="s">
-        <v>47</v>
-      </c>
       <c r="I28" t="s">
-        <v>225</v>
+        <v>202</v>
       </c>
       <c r="J28" t="s">
-        <v>226</v>
+        <v>203</v>
       </c>
       <c r="K28" t="s">
-        <v>227</v>
+        <v>204</v>
       </c>
       <c r="L28" t="s">
-        <v>228</v>
+        <v>205</v>
       </c>
       <c r="M28" t="n">
         <v>2</v>
       </c>
       <c r="N28" t="s">
-        <v>229</v>
+        <v>206</v>
       </c>
       <c r="O28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P28" t="n">
         <v>2</v>
@@ -2985,7 +2853,7 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>228</v>
+        <v>205</v>
       </c>
     </row>
   </sheetData>
